--- a/medicine/Pharmacie/Maranta_arundinacea/Maranta_arundinacea.xlsx
+++ b/medicine/Pharmacie/Maranta_arundinacea/Maranta_arundinacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maranta arundinacea, aussi appelée marante, dictame, herbe aux flèches ou arrow-root, est une espèce de plante de la famille des Marantaceae que l'on trouve principalement en Amérique tropicale.
 Elle se cultive comme plante d'appartement ou de serre, sous lumière vive mais tamisée. Pour un meilleur résultat, il est bon de les cultiver dans un mélange terreau/tourbe/terre franche, dans des coupes plus larges que profondes. Les arrow-root apprécient une vaporisation du feuillage.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le système racinaire est superficiel, en forme de flèches (d'où le nom) jaune pâle, couvertes d'écailles.
 Les feuilles sont elliptiques, avec la pointe émoussée.
@@ -555,13 +569,15 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>On extrait des rhizomes de l'arrow-root une fécule qui peut servir comme :
 adjuvant alimentaire (épaississant),
 ingrédient de base en pâtisserie ou confiserie (« bonbons la rouroute »),
 régulateur du fonctionnement intestinal en cas de diarrhées.
-Au Royaume-Uni, la boisson Saloop est parfois un Salep réalisé avec de la farine de tubercule d'Arum maculatum ou de Maranta arundinacea [1].</t>
+Au Royaume-Uni, la boisson Saloop est parfois un Salep réalisé avec de la farine de tubercule d'Arum maculatum ou de Maranta arundinacea .</t>
         </is>
       </c>
     </row>
